--- a/client/build/locales/multilanguage.xlsx
+++ b/client/build/locales/multilanguage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
   <si>
     <t>标记</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>请输入接收者地址</t>
+  </si>
+  <si>
+    <t>token_repu</t>
+  </si>
+  <si>
+    <t>The value of commemoration</t>
+  </si>
+  <si>
+    <t>纪念值</t>
   </si>
 </sst>
 </file>
@@ -448,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -470,9 +479,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,7 +516,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,24 +576,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,6 +592,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -536,59 +607,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,19 +615,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -622,187 +631,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,17 +828,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,16 +849,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -879,16 +888,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -904,162 +922,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1407,10 +1416,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1949,6 +1958,17 @@
         <v>141</v>
       </c>
     </row>
+    <row r="49" ht="18" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C75">
     <sortCondition ref="A2"/>

--- a/client/build/locales/multilanguage.xlsx
+++ b/client/build/locales/multilanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16200"/>
+    <workbookView windowHeight="24000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <t>coin_description</t>
   </si>
   <si>
-    <t>Commemorative coins of NaturalDAO</t>
+    <t>Commemorative tokens of NaturalDAO</t>
   </si>
   <si>
     <t>自然道纪念币</t>
@@ -110,7 +110,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-A total of {tokencount} types of commemorative coins</t>
+A total of {tokencount} types of commemorative tokens</t>
   </si>
   <si>
     <t>共有{tokencount}种纪念币</t>
@@ -182,7 +182,7 @@
     <t>my_owned_token</t>
   </si>
   <si>
-    <t>My commemorative coins</t>
+    <t>My commemorative tokens</t>
   </si>
   <si>
     <t>我拥有的纪念币</t>
@@ -218,7 +218,7 @@
     <t>no_token</t>
   </si>
   <si>
-    <t>No commemorative coin is  found</t>
+    <t>No commemorative token is  found</t>
   </si>
   <si>
     <t>当前类型的纪念币不存在</t>
@@ -233,7 +233,7 @@
     <t>owned_token</t>
   </si>
   <si>
-    <t>A total of {tokencount} commemorative coins</t>
+    <t>A total of {tokencount} commemorative tokens</t>
   </si>
   <si>
     <t>共有{tokencount}个纪念币</t>
@@ -251,7 +251,7 @@
     <t>token_price</t>
   </si>
   <si>
-    <t>The price of commemorative coin</t>
+    <t>The price of commemorative token</t>
   </si>
   <si>
     <t>纪念币价格</t>
@@ -287,7 +287,7 @@
     <t>query_first</t>
   </si>
   <si>
-    <t>Please query the commemorative coins first</t>
+    <t>Please query the commemorative token first</t>
   </si>
   <si>
     <t>请先查询纪念币</t>
@@ -296,7 +296,7 @@
     <t>receive_simple_token</t>
   </si>
   <si>
-    <t>Receive a commemorative coin</t>
+    <t>Receive a commemorative token</t>
   </si>
   <si>
     <t>您收到一个纪念币</t>
@@ -341,7 +341,7 @@
     <t>send_simple_token_success</t>
   </si>
   <si>
-    <t>Send a commemorative coin successfully</t>
+    <t>Send a commemorative token successfully</t>
   </si>
   <si>
     <t>赠送纪念币成功</t>
@@ -350,7 +350,7 @@
     <t>send_token</t>
   </si>
   <si>
-    <t>Send #{id}  commemorative coins</t>
+    <t>Send #{id}  commemorative token</t>
   </si>
   <si>
     <t>赠送 #{id} 号纪念币</t>
@@ -368,7 +368,7 @@
     <t>token_descrip</t>
   </si>
   <si>
-    <t>The description of commemorative coin</t>
+    <t>The description of commemorative token</t>
   </si>
   <si>
     <t>纪念币简介</t>
@@ -383,7 +383,7 @@
     <t>token_name</t>
   </si>
   <si>
-    <t>The name of commemorative coin</t>
+    <t>The name of commemorative token</t>
   </si>
   <si>
     <t>纪念币名称</t>
@@ -419,7 +419,7 @@
     <t>token_buyLimit</t>
   </si>
   <si>
-    <t>The maximum fo commemorative coins being sold</t>
+    <t>The maximum fo commemorative tokens being sold</t>
   </si>
   <si>
     <t>纪念币出售总量</t>
@@ -428,7 +428,7 @@
     <t>token_buyAmount</t>
   </si>
   <si>
-    <t>The amount fo commemorative coins being sold</t>
+    <t>The amount fo commemorative tokens being sold</t>
   </si>
   <si>
     <t>纪念币已售出数量</t>
@@ -457,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -492,8 +492,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,16 +524,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,18 +546,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,6 +569,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -569,22 +593,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -593,7 +601,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,14 +615,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -637,43 +637,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,133 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +829,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,6 +858,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -869,6 +878,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,15 +908,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -911,35 +922,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,103 +948,103 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,16 +1053,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1418,8 +1418,8 @@
   <sheetPr/>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="2"/>

--- a/client/build/locales/multilanguage.xlsx
+++ b/client/build/locales/multilanguage.xlsx
@@ -446,10 +446,10 @@
     <t>token_repu</t>
   </si>
   <si>
-    <t>The value of commemoration</t>
-  </si>
-  <si>
-    <t>纪念值</t>
+    <t>The value of honor</t>
+  </si>
+  <si>
+    <t>荣誉值</t>
   </si>
 </sst>
 </file>
@@ -457,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -485,10 +485,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,6 +501,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -507,120 +621,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -643,55 +643,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,43 +757,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,31 +793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,31 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +829,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,34 +867,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -908,16 +908,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -927,148 +927,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1418,8 +1418,8 @@
   <sheetPr/>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="2"/>
